--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146241.5104564927</v>
+        <v>159967.8685939106</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515712</v>
+        <v>86005.92442515709</v>
       </c>
       <c r="E2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989084</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371069</v>
+        <v>-12126.11889371073</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371069</v>
+        <v>-12126.11889371073</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-12126.11889371074</v>
       </c>
       <c r="E6" t="n">
-        <v>-83480.83758727727</v>
+        <v>-83480.83758727736</v>
       </c>
       <c r="F6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="G6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="H6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="I6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="J6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="K6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="L6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="M6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="N6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="O6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272269</v>
       </c>
       <c r="P6" t="n">
-        <v>49619.16241272271</v>
+        <v>49619.16241272268</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159967.8685939106</v>
+        <v>34857.96979643418</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>86005.92442515714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>86005.92442515714</v>
+      </c>
+      <c r="D2" t="n">
         <v>86005.92442515711</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86005.92442515711</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86005.92442515709</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989086</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989084</v>
+        <v>91456.43851989089</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-27276.79286374546</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-27276.79286374546</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371074</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="E6" t="n">
-        <v>-83480.83758727736</v>
+        <v>-98290.85442639126</v>
       </c>
       <c r="F6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="G6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="H6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="I6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="J6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="K6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="L6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="M6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="N6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="O6" t="n">
-        <v>49619.16241272269</v>
+        <v>34809.14557360881</v>
       </c>
       <c r="P6" t="n">
-        <v>49619.16241272268</v>
+        <v>34809.14557360881</v>
       </c>
     </row>
   </sheetData>
